--- a/validations/flangesegments.PolynomialLFlangeSegment/Case_4_D4600_L_Tilt-0p00deg_ShapeFactor-1p00_Fv910kN_ShellStiff-Simpl.xlsx
+++ b/validations/flangesegments.PolynomialLFlangeSegment/Case_4_D4600_L_Tilt-0p00deg_ShapeFactor-1p00_Fv910kN_ShellStiff-Simpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialLFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A4944F-352F-431A-AE5F-4CF10295FA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C53769-CF33-4184-AF34-83D41D603454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24990" yWindow="-4425" windowWidth="21600" windowHeight="13125" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-8700" windowWidth="29040" windowHeight="18240" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="16" r:id="rId1"/>
@@ -158,6 +158,10 @@
     <definedName name="E_mod" localSheetId="1">PyFlange_Gap30deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="2">PyFlange_Gap60deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="3">PyFlange_Gap90deg!$J$43</definedName>
+    <definedName name="fatigue.damage" localSheetId="4">PyFlange_Gap120deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="1">PyFlange_Gap30deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="2">PyFlange_Gap60deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="3">PyFlange_Gap90deg!$J$169</definedName>
     <definedName name="ffff" localSheetId="5">#REF!</definedName>
     <definedName name="ffff">#REF!</definedName>
     <definedName name="fffff" localSheetId="5">#REF!</definedName>
@@ -251,6 +255,7 @@
     <definedName name="k_seg" localSheetId="1">PyFlange_Gap30deg!$J$142</definedName>
     <definedName name="k_seg" localSheetId="2">PyFlange_Gap60deg!$J$142</definedName>
     <definedName name="k_seg" localSheetId="3">PyFlange_Gap90deg!$J$142</definedName>
+    <definedName name="markov_matrix" localSheetId="5">SGRE!$U$16:$W$1216</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="4">PyFlange_Gap120deg!$I$120</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="1">PyFlange_Gap30deg!$I$120</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="2">PyFlange_Gap60deg!$I$120</definedName>
@@ -331,10 +336,10 @@
     <definedName name="polynomial_initial_slope" localSheetId="1">PyFlange_Gap30deg!$J$152</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="2">PyFlange_Gap60deg!$J$152</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="3">PyFlange_Gap90deg!$J$152</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PyFlange_Gap120deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PyFlange_Gap30deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PyFlange_Gap60deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">PyFlange_Gap90deg!$A$11:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PyFlange_Gap120deg!$A$11:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PyFlange_Gap30deg!$A$11:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PyFlange_Gap60deg!$A$11:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PyFlange_Gap90deg!$A$11:$K$178</definedName>
     <definedName name="query">#N/A</definedName>
     <definedName name="Radius" localSheetId="4">PyFlange_Gap120deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="1">PyFlange_Gap30deg!$J$41</definedName>
@@ -495,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="416">
   <si>
     <t>A</t>
   </si>
@@ -4473,6 +4478,15 @@
   <si>
     <t>Design value capped to 90% Fp,C*: Yes</t>
   </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Cumulated damage:</t>
+  </si>
+  <si>
+    <t>D =</t>
+  </si>
 </sst>
 </file>
 
@@ -5397,7 +5411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5891,13 +5905,34 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5909,26 +5944,8 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -5965,7 +5982,14 @@
     <cellStyle name="Standard 5" xfId="21" xr:uid="{1FF9B1AA-B2DF-48C0-8E34-616BD6B6E94E}"/>
     <cellStyle name="Standard 6" xfId="22" xr:uid="{89D0DB1A-94A2-40B8-AB5A-43E64C1F178C}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -20101,7 +20125,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -20258,7 +20282,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -20586,8 +20610,8 @@
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="4" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -20613,12 +20637,12 @@
       <c r="B2" s="156"/>
       <c r="D2" s="157"/>
       <c r="E2" s="160">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F2" s="155"/>
       <c r="G2" s="163">
         <f ca="1">MAX(MAX(G5:G114),ABS(MIN(G5:G114)))</f>
-        <v>1.2337723006623673E-3</v>
+        <v>5.3922035158799394E-3</v>
       </c>
       <c r="V2" s="158">
         <v>30</v>
@@ -20634,11 +20658,11 @@
       </c>
       <c r="Z2" s="158">
         <f>MATCH(gap_angle,V2:Y2,0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="159" t="str">
         <f>"PyFlange_Gap"&amp;gap_angle&amp;"deg"</f>
-        <v>PyFlange_Gap30deg</v>
+        <v>PyFlange_Gap120deg</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -21159,11 +21183,11 @@
       </c>
       <c r="E26" s="107" cm="1">
         <f t="array" ref="E26">INDEX(SGRE!L48:O48,case_number)</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F26" s="110" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT(sheet_name&amp;"!gap.angle")</f>
-        <v>29.999999999999996</v>
+        <v>119.99999999999999</v>
       </c>
       <c r="G26" s="118">
         <f t="shared" ref="G26:G31" ca="1" si="0">(F26-E26)/E26</f>
@@ -21180,11 +21204,11 @@
       </c>
       <c r="E27" s="107" cm="1">
         <f t="array" ref="E27">INDEX(SGRE!L49:O49,case_number)</f>
-        <v>1.2042771838760873</v>
+        <v>4.8171087355043491</v>
       </c>
       <c r="F27" s="109" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT(sheet_name&amp;"!gap.L")/1000</f>
-        <v>1.2042771838760875</v>
+        <v>4.81710873550435</v>
       </c>
       <c r="G27" s="118">
         <f t="shared" ca="1" si="0"/>
@@ -21249,15 +21273,15 @@
       </c>
       <c r="E30" s="107" cm="1">
         <f t="array" ref="E30">INDEX(SGRE!L52:O52,case_number)</f>
-        <v>0.25543636477371356</v>
+        <v>1.6365395665793787</v>
       </c>
       <c r="F30" s="109" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(sheet_name&amp;"!gap.k_mean")</f>
-        <v>0.25543636477371395</v>
+        <v>1.6365395665793778</v>
       </c>
       <c r="G30" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5212323388764126E-15</v>
+        <v>-5.4271735180626019E-16</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.6">
@@ -21273,15 +21297,15 @@
       </c>
       <c r="E31" s="107" cm="1">
         <f t="array" ref="E31">INDEX(SGRE!L53:O53,case_number)</f>
-        <v>1.2162355202035975</v>
+        <v>0.44426272750754409</v>
       </c>
       <c r="F31" s="109" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(sheet_name&amp;"!gap.COV")</f>
-        <v>1.2162355202035973</v>
+        <v>0.44426272750754386</v>
       </c>
       <c r="G31" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.825671107581705E-16</v>
+        <v>-4.9980471278959754E-16</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.6">
@@ -21352,7 +21376,7 @@
       <c r="D35" s="103"/>
       <c r="E35" s="107" cm="1">
         <f t="array" ref="E35">INDEX(SGRE!L57:O57,case_number)</f>
-        <v>0.95286282352314688</v>
+        <v>0.42441366570439232</v>
       </c>
       <c r="F35" s="109" t="s">
         <v>84</v>
@@ -21370,7 +21394,7 @@
       <c r="D36" s="103"/>
       <c r="E36" s="107" cm="1">
         <f t="array" ref="E36">INDEX(SGRE!L58:O58,case_number)</f>
-        <v>-1.818755742136632</v>
+        <v>0.40252051240999598</v>
       </c>
       <c r="F36" s="109" t="s">
         <v>84</v>
@@ -21388,7 +21412,7 @@
       <c r="D37" s="103"/>
       <c r="E37" s="107" cm="1">
         <f t="array" ref="E37">INDEX(SGRE!L59:O59,case_number)</f>
-        <v>-0.25139168372340781</v>
+        <v>1.100638551127151</v>
       </c>
       <c r="F37" s="113" t="s">
         <v>84</v>
@@ -21408,15 +21432,15 @@
       </c>
       <c r="E38" s="107" cm="1">
         <f t="array" ref="E38">INDEX(SGRE!L60:O60,case_number)</f>
-        <v>0.77768332816019681</v>
+        <v>3.0060257869038067</v>
       </c>
       <c r="F38" s="109" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>0.77768332816019836</v>
+        <v>3.0060257869038054</v>
       </c>
       <c r="G38" s="118">
         <f t="shared" ref="G38:G39" ca="1" si="1">(F38-E38)/E38</f>
-        <v>1.9986441501225583E-15</v>
+        <v>-4.4319900226884533E-16</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15.6">
@@ -21429,15 +21453,15 @@
       </c>
       <c r="E39" s="107" cm="1">
         <f t="array" ref="E39">INDEX(SGRE!L61:O61,case_number)</f>
-        <v>0.77768332816019681</v>
+        <v>3.0060257869038067</v>
       </c>
       <c r="F39" s="109" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>0.77768332816019836</v>
+        <v>3.0060257869038054</v>
       </c>
       <c r="G39" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9986441501225583E-15</v>
+        <v>-4.4319900226884533E-16</v>
       </c>
       <c r="H39" t="s">
         <v>162</v>
@@ -21569,15 +21593,15 @@
       </c>
       <c r="E47" s="107" cm="1">
         <f t="array" ref="E47">INDEX(SGRE!L69:O69,case_number)</f>
-        <v>602.8619512826707</v>
+        <v>613.2751826323979</v>
       </c>
       <c r="F47" s="108" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT(sheet_name&amp;"!Point2.Z")</f>
-        <v>602.86197214500396</v>
+        <v>613.27520118169321</v>
       </c>
       <c r="G47" s="118">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4605490052701532E-8</v>
+        <v>3.024628393647412E-8</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.6">
@@ -21611,15 +21635,15 @@
       </c>
       <c r="E49" s="107" cm="1">
         <f t="array" ref="E49">INDEX(SGRE!L71:O71,case_number)</f>
-        <v>45.567283228982809</v>
+        <v>38.285325720355317</v>
       </c>
       <c r="F49" s="107" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(sheet_name&amp;"!Point3.Z")</f>
-        <v>45.567294474058833</v>
+        <v>38.285326891212712</v>
       </c>
       <c r="G49" s="118">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4677960210215331E-7</v>
+        <v>3.0582406522824058E-8</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.6">
@@ -21632,15 +21656,15 @@
       </c>
       <c r="E50" s="107" cm="1">
         <f t="array" ref="E50">INDEX(SGRE!L72:O72,case_number)</f>
-        <v>915.97635433028302</v>
+        <v>913.17671069902224</v>
       </c>
       <c r="F50" s="107" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT(sheet_name&amp;"!Point3.Fs")</f>
-        <v>915.97635887495949</v>
+        <v>913.17671188050031</v>
       </c>
       <c r="G50" s="118">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9615652741593107E-9</v>
+        <v>1.2938109955215352E-9</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.6">
@@ -21651,7 +21675,7 @@
       <c r="D51" s="103"/>
       <c r="E51" s="107" cm="1">
         <f t="array" ref="E51">INDEX(SGRE!L73:O73,case_number)</f>
-        <v>26706714.403389178</v>
+        <v>25313987.394131456</v>
       </c>
       <c r="F51" s="110" t="s">
         <v>84</v>
@@ -21666,7 +21690,7 @@
       <c r="D52" s="103"/>
       <c r="E52" s="107" cm="1">
         <f t="array" ref="E52">INDEX(SGRE!L74:O74,case_number)</f>
-        <v>13440.116844583727</v>
+        <v>13522.568458699927</v>
       </c>
       <c r="F52" s="111" t="s">
         <v>84</v>
@@ -21681,7 +21705,7 @@
       <c r="D53" s="103"/>
       <c r="E53" s="107" cm="1">
         <f t="array" ref="E53">INDEX(SGRE!L75:O75,case_number)</f>
-        <v>1900907.1004999203</v>
+        <v>1065084.2282044198</v>
       </c>
       <c r="F53" s="111" t="s">
         <v>84</v>
@@ -21696,15 +21720,15 @@
       <c r="D54" s="103"/>
       <c r="E54" s="137" cm="1">
         <f t="array" ref="E54">INDEX(SGRE!L76:O76,case_number)</f>
-        <v>5.0324860788110003E-4</v>
+        <v>5.3419353688367822E-4</v>
       </c>
       <c r="F54" s="137" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.2")*1000</f>
-        <v>5.0324858596086011E-4</v>
+        <v>5.3419349928391594E-4</v>
       </c>
       <c r="G54" s="118">
         <f t="shared" ref="G54:G56" ca="1" si="4">(F54-E54)/E54</f>
-        <v>-4.355747752794802E-8</v>
+        <v>-7.0386029937245773E-8</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.6">
@@ -21715,15 +21739,15 @@
       <c r="D55" s="103"/>
       <c r="E55" s="137" cm="1">
         <f t="array" ref="E55">INDEX(SGRE!L77:O77,case_number)</f>
-        <v>7.1177123167898496E-2</v>
+        <v>4.2074929232655711E-2</v>
       </c>
       <c r="F55" s="137" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.1")</f>
-        <v>7.1177106209083893E-2</v>
+        <v>4.2074929350636441E-2</v>
       </c>
       <c r="G55" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.382621528916684E-7</v>
+        <v>2.8040624548738093E-9</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="14.4">
@@ -21734,15 +21758,15 @@
       <c r="D56" s="103"/>
       <c r="E56" s="107" cm="1">
         <f t="array" ref="E56">INDEX(SGRE!L78:O78,case_number)</f>
-        <v>911.68807221336829</v>
+        <v>910.78285551648889</v>
       </c>
       <c r="F56" s="107" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.0")/1000</f>
-        <v>911.68807626019793</v>
+        <v>910.78285665140675</v>
       </c>
       <c r="G56" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4388314030442613E-9</v>
+        <v>1.2460904871752099E-9</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.6">
@@ -21758,15 +21782,15 @@
       </c>
       <c r="E57" s="107" cm="1">
         <f t="array" ref="E57">INDEX(SGRE!L79:O79,case_number)</f>
-        <v>250.33924740429279</v>
+        <v>147.22844876718403</v>
       </c>
       <c r="F57" s="107" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
-        <v>250.3393512065656</v>
+        <v>147.22844896628345</v>
       </c>
       <c r="G57" s="118">
         <f ca="1">(F57-E57)/E57</f>
-        <v>4.1464642032854609E-7</v>
+        <v>1.3523162100022789E-9</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.6" hidden="1">
@@ -21862,15 +21886,15 @@
       </c>
       <c r="E62" s="107" cm="1">
         <f t="array" ref="E62">INDEX(SGRE!L84:O84,case_number)</f>
-        <v>6457.3238604573107</v>
+        <v>982.48391618229562</v>
       </c>
       <c r="F62" s="111" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness")</f>
-        <v>6457.3265379635222</v>
+        <v>982.48391751092493</v>
       </c>
       <c r="G62" s="118">
         <f ca="1">(F62-E62)/E62</f>
-        <v>4.1464641845026794E-7</v>
+        <v>1.3523166006068862E-9</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15.6">
@@ -21883,11 +21907,11 @@
       </c>
       <c r="E63" s="109" cm="1">
         <f t="array" ref="E63">INDEX(SGRE!L85:O85,case_number)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F63" s="109" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness_correction_factor")</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G63" s="118"/>
     </row>
@@ -21904,7 +21928,7 @@
       </c>
       <c r="E64" s="107" cm="1">
         <f t="array" ref="E64">INDEX(SGRE!L86:O86,case_number)</f>
-        <v>2762.8420208404168</v>
+        <v>278.26526530530617</v>
       </c>
       <c r="F64" s="111" t="s">
         <v>84</v>
@@ -21926,7 +21950,7 @@
       </c>
       <c r="E65" s="107" cm="1">
         <f t="array" ref="E65">INDEX(SGRE!L87:O87,case_number)</f>
-        <v>2873.9789957155294</v>
+        <v>386.82104021159915</v>
       </c>
       <c r="F65" s="111" t="s">
         <v>84</v>
@@ -21948,15 +21972,15 @@
       </c>
       <c r="E66" s="107" cm="1">
         <f t="array" ref="E66">INDEX(SGRE!L88:O88,case_number)</f>
-        <v>2873.9789957155294</v>
+        <v>386.82104021159915</v>
       </c>
       <c r="F66" s="111" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>2873.978995715529</v>
+        <v>386.8210402115991</v>
       </c>
       <c r="G66" s="118">
         <f ca="1">(F66-E66)/E66</f>
-        <v>-1.5822918384733931E-16</v>
+        <v>-1.4695017321114043E-16</v>
       </c>
       <c r="H66" t="s">
         <v>148</v>
@@ -21975,11 +21999,11 @@
       </c>
       <c r="E67" s="109" cm="1">
         <f t="array" ref="E67">INDEX(SGRE!L89:O89,case_number)</f>
-        <v>1.8202477434344697</v>
+        <v>3.3809909737378794</v>
       </c>
       <c r="F67" s="109" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fac")</f>
-        <v>1.8202477434344697</v>
+        <v>3.3809909737378794</v>
       </c>
       <c r="G67" s="118">
         <f ca="1">(F67-E67)/E67</f>
@@ -21999,15 +22023,15 @@
       </c>
       <c r="E68" s="107" cm="1">
         <f t="array" ref="E68">INDEX(SGRE!L90:O90,case_number)</f>
-        <v>1430.9035779226776</v>
+        <v>6.1725262613190992</v>
       </c>
       <c r="F68" s="107" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fl")</f>
-        <v>1430.9053629268196</v>
+        <v>6.1725267927708671</v>
       </c>
       <c r="G68" s="118">
         <f ca="1">(F68-E68)/E68</f>
-        <v>1.2474664048186463E-6</v>
+        <v>8.6099555583439335E-8</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15.6">
@@ -22023,7 +22047,7 @@
       </c>
       <c r="E69" s="107" cm="1">
         <f t="array" ref="E69">INDEX(SGRE!L91:O91,case_number)</f>
-        <v>112.87448910309563</v>
+        <v>126.19009220116274</v>
       </c>
       <c r="F69" s="110" t="s">
         <v>84</v>
@@ -22046,7 +22070,7 @@
       </c>
       <c r="E70" s="107" cm="1">
         <f t="array" ref="E70">INDEX(SGRE!L92:O92,case_number)</f>
-        <v>148.09719855410455</v>
+        <v>58.216877642151466</v>
       </c>
       <c r="F70" s="110" t="s">
         <v>84</v>
@@ -22094,11 +22118,11 @@
       </c>
       <c r="E72" s="107" cm="1">
         <f t="array" ref="E72">INDEX(SGRE!L94:O94,case_number)</f>
-        <v>250.33924740429279</v>
+        <v>147.22844876718403</v>
       </c>
       <c r="F72" s="107" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap_tot")</f>
-        <v>250.3393512065656</v>
+        <v>147.22844896628345</v>
       </c>
       <c r="G72" s="107"/>
     </row>
@@ -22185,15 +22209,15 @@
       </c>
       <c r="E76" s="107" cm="1">
         <f t="array" ref="E76">INDEX(SGRE!L98:O98,case_number)</f>
-        <v>1.2322626855180667</v>
+        <v>1.0353388428057946</v>
       </c>
       <c r="F76" s="109" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(sheet_name&amp;"!stiffness_correction_factor")</f>
-        <v>1.2322629896153621</v>
+        <v>1.035338874468948</v>
       </c>
       <c r="G76" s="118">
         <f ca="1">(F76-E76)/E76</f>
-        <v>2.4677960220561701E-7</v>
+        <v>3.0582406573963825E-8</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -22357,15 +22381,15 @@
       </c>
       <c r="E85" s="107" cm="1">
         <f t="array" ref="E85">INDEX(SGRE!L107:O107,case_number)</f>
-        <v>-280.47813629318171</v>
+        <v>-177.36733765607292</v>
       </c>
       <c r="F85" s="107" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT(sheet_name&amp;"!point4.Z")</f>
-        <v>-280.47835120656561</v>
+        <v>-177.36744896628343</v>
       </c>
       <c r="G85" s="118">
         <f ca="1">(F85-E85)/E85</f>
-        <v>7.6623934663890072E-7</v>
+        <v>6.2756881838938729E-7</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15.6">
@@ -22381,15 +22405,15 @@
       </c>
       <c r="E86" s="107" cm="1">
         <f t="array" ref="E86">INDEX(SGRE!L108:O108,case_number)</f>
-        <v>4.0892740274784373E-2</v>
+        <v>9.9283492806988265E-3</v>
       </c>
       <c r="F86" s="113" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(sheet_name&amp;"!true_force_initial_slope")</f>
-        <v>4.0842287944535163E-2</v>
+        <v>9.8748136008005583E-3</v>
       </c>
       <c r="G86" s="118">
         <f ca="1">(F86-E86)/E86</f>
-        <v>-1.2337723006623673E-3</v>
+        <v>-5.3922035158799394E-3</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="15.6">
@@ -22405,15 +22429,15 @@
       </c>
       <c r="E87" s="107" cm="1">
         <f t="array" ref="E87">INDEX(SGRE!L109:O109,case_number)</f>
-        <v>904.88147108765565</v>
+        <v>909.26913226829197</v>
       </c>
       <c r="F87" s="108" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(sheet_name&amp;"!point4.Fs")</f>
-        <v>904.88778406708673</v>
+        <v>909.27307325486152</v>
       </c>
       <c r="G87" s="118">
         <f ca="1">(F87-E87)/E87</f>
-        <v>6.9765816107212852E-6</v>
+        <v>4.3342355191523996E-6</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="15.6">
@@ -22429,11 +22453,11 @@
       </c>
       <c r="E88" s="107" cm="1">
         <f t="array" ref="E88">INDEX(SGRE!L110:O110,case_number)</f>
-        <v>7.8941441141391233E-2</v>
+        <v>4.6426703136656047E-2</v>
       </c>
       <c r="F88" s="110" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(sheet_name&amp;"!polynomial_initial_slope")</f>
-        <v>7.8941373586939409E-2</v>
+        <v>4.6426644218962108E-2</v>
       </c>
       <c r="G88" s="104"/>
       <c r="H88" t="s">
@@ -22453,7 +22477,7 @@
       </c>
       <c r="E89" s="107" cm="1">
         <f t="array" ref="E89">INDEX(SGRE!L111:O111,case_number)</f>
-        <v>7.8941441141391233E-2</v>
+        <v>4.6426703136656047E-2</v>
       </c>
       <c r="F89" s="104"/>
       <c r="G89" s="104"/>
@@ -22594,15 +22618,15 @@
       </c>
       <c r="E96" s="107" cm="1">
         <f t="array" ref="E96">INDEX(SGRE!L118:O118,case_number)</f>
-        <v>0.20466998551160007</v>
+        <v>0.15522906132662276</v>
       </c>
       <c r="F96" s="113" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT(sheet_name&amp;"!true_moment_initial_slope")</f>
-        <v>0.20455426498915263</v>
+        <v>0.15510640811831464</v>
       </c>
       <c r="G96" s="118">
         <f ca="1">(F96-E96)/E96</f>
-        <v>-5.6540055034534392E-4</v>
+        <v>-7.9014333566085478E-4</v>
       </c>
       <c r="H96" t="s">
         <v>305</v>
@@ -22617,7 +22641,7 @@
       </c>
       <c r="E97" s="107" cm="1">
         <f t="array" ref="E97">INDEX(SGRE!L119:O119,case_number)</f>
-        <v>0.11790212314214009</v>
+        <v>6.6332947139890075E-2</v>
       </c>
       <c r="F97" s="109" t="s">
         <v>84</v>
@@ -22642,15 +22666,15 @@
       </c>
       <c r="E98" s="107" cm="1">
         <f t="array" ref="E98">INDEX(SGRE!L120:O120,case_number)</f>
-        <v>-28.975794198718219</v>
+        <v>-15.422967846551416</v>
       </c>
       <c r="F98" s="108" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT(sheet_name&amp;"!point4.Ms")</f>
-        <v>-28.961319336724955</v>
+        <v>-15.413938771570281</v>
       </c>
       <c r="G98" s="118">
         <f ca="1">(F98-E98)/E98</f>
-        <v>-4.9955013809093493E-4</v>
+        <v>-5.8543044833962038E-4</v>
       </c>
       <c r="H98" t="s">
         <v>305</v>
@@ -22665,7 +22689,7 @@
       </c>
       <c r="E99" s="107" cm="1">
         <f t="array" ref="E99">INDEX(SGRE!L121:O121,case_number)</f>
-        <v>-18.138812268104495</v>
+        <v>-7.1985391543906019</v>
       </c>
       <c r="F99" s="109" t="s">
         <v>84</v>
@@ -22754,7 +22778,7 @@
       </c>
       <c r="E102" s="107" cm="1">
         <f t="array" ref="E102">INDEX(SGRE!L124:O124,case_number)</f>
-        <v>-13.776644218722884</v>
+        <v>-14.420868090590684</v>
       </c>
       <c r="F102" s="109" t="s">
         <v>84</v>
@@ -22788,7 +22812,7 @@
       </c>
       <c r="E103" s="107" cm="1">
         <f t="array" ref="E103">INDEX(SGRE!L125:O125,case_number)</f>
-        <v>-3.381047880718691</v>
+        <v>-2.3154906996097862</v>
       </c>
       <c r="F103" s="109" t="s">
         <v>84</v>
@@ -22822,7 +22846,7 @@
       </c>
       <c r="E104" s="107" cm="1">
         <f t="array" ref="E104">INDEX(SGRE!L126:O126,case_number)</f>
-        <v>2.5422624423269242E-3</v>
+        <v>6.1723595242131884E-4</v>
       </c>
       <c r="F104" s="109" t="s">
         <v>84</v>
@@ -22856,7 +22880,7 @@
       </c>
       <c r="E105" s="107" cm="1">
         <f t="array" ref="E105">INDEX(SGRE!L127:O127,case_number)</f>
-        <v>-13.7309336941262</v>
+        <v>-14.373020048999784</v>
       </c>
       <c r="F105" s="109" t="s">
         <v>84</v>
@@ -22890,7 +22914,7 @@
       </c>
       <c r="E106" s="107" cm="1">
         <f t="array" ref="E106">INDEX(SGRE!L128:O128,case_number)</f>
-        <v>-3.3692576684044768</v>
+        <v>-2.308857404895797</v>
       </c>
       <c r="F106" s="109" t="s">
         <v>84</v>
@@ -22908,7 +22932,7 @@
       </c>
       <c r="E107" s="107" cm="1">
         <f t="array" ref="E107">INDEX(SGRE!L129:O129,case_number)</f>
-        <v>-3.3573291291074807</v>
+        <v>-3.9959008951990436</v>
       </c>
       <c r="F107" s="109" t="s">
         <v>84</v>
@@ -22926,7 +22950,7 @@
       </c>
       <c r="E108" s="107" cm="1">
         <f t="array" ref="E108">INDEX(SGRE!L130:O130,case_number)</f>
-        <v>586.0745173567467</v>
+        <v>600.22835238978121</v>
       </c>
       <c r="F108" s="109" t="s">
         <v>84</v>
@@ -22944,7 +22968,7 @@
       </c>
       <c r="E109" s="107" cm="1">
         <f t="array" ref="E109">INDEX(SGRE!L131:O131,case_number)</f>
-        <v>18.707808338087705</v>
+        <v>12.321931253534766</v>
       </c>
       <c r="F109" s="109" t="s">
         <v>84</v>
@@ -22962,7 +22986,7 @@
       </c>
       <c r="E110" s="107" cm="1">
         <f t="array" ref="E110">INDEX(SGRE!L132:O132,case_number)</f>
-        <v>1.1478902946851089E-3</v>
+        <v>1.2184744614676818E-3</v>
       </c>
       <c r="F110" s="109" t="s">
         <v>84</v>
@@ -22980,7 +23004,7 @@
       </c>
       <c r="E111" s="107" cm="1">
         <f t="array" ref="E111">INDEX(SGRE!L133:O133,case_number)</f>
-        <v>0.27374747258086779</v>
+        <v>0.2285541466945604</v>
       </c>
       <c r="F111" s="109" t="s">
         <v>84</v>
@@ -22998,7 +23022,7 @@
       </c>
       <c r="E112" s="107" cm="1">
         <f t="array" ref="E112">INDEX(SGRE!L134:O134,case_number)</f>
-        <v>3.8504263700036461</v>
+        <v>1.7856626634338113</v>
       </c>
       <c r="F112" s="109" t="s">
         <v>84</v>
@@ -23017,13 +23041,15 @@
       <c r="D114" s="146"/>
       <c r="E114" s="107" cm="1">
         <f t="array" ref="E114">INDEX(SGRE!L136:O136,case_number)</f>
-        <v>0.41798372950084062</v>
-      </c>
-      <c r="F114" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="G114" s="109" t="s">
-        <v>84</v>
+        <v>0.34430849726122487</v>
+      </c>
+      <c r="F114" s="109" cm="1">
+        <f t="array" aca="1" ref="F114" ca="1">INDIRECT(sheet_name&amp;"!fatigue.damage")</f>
+        <v>0.34418835879034637</v>
+      </c>
+      <c r="G114" s="118">
+        <f ca="1">(F114-E114)/E114</f>
+        <v>-3.4892682531545644E-4</v>
       </c>
       <c r="H114" t="s">
         <v>340</v>
@@ -23031,97 +23057,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2 G76:G80">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G16">
     <cfRule type="cellIs" dxfId="26" priority="19" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
+  <conditionalFormatting sqref="G26:G31">
     <cfRule type="cellIs" dxfId="25" priority="18" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G31">
+  <conditionalFormatting sqref="G38:G39">
     <cfRule type="cellIs" dxfId="24" priority="17" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G39">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="notBetween">
+  <conditionalFormatting sqref="G45:G50">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G50">
+  <conditionalFormatting sqref="G54:G57">
     <cfRule type="cellIs" dxfId="22" priority="5" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G57">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="notBetween">
+  <conditionalFormatting sqref="G59:G63">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G63">
+  <conditionalFormatting sqref="G65:G68">
     <cfRule type="cellIs" dxfId="20" priority="14" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G68">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="notBetween">
-      <formula>-0.001</formula>
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="notBetween">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85:G87">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:G87">
+  <conditionalFormatting sqref="G91:G92">
     <cfRule type="cellIs" dxfId="15" priority="9" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G92">
+  <conditionalFormatting sqref="G96">
     <cfRule type="cellIs" dxfId="14" priority="8" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96">
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="13" priority="7" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="notBetween">
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
@@ -23142,11 +23174,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -23232,12 +23264,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -23245,12 +23277,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -23258,12 +23290,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="186"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -23271,12 +23303,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="186"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -23284,12 +23316,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -23337,112 +23369,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="176" t="s">
+      <c r="C13" s="178"/>
+      <c r="D13" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="176" t="s">
+      <c r="C14" s="178"/>
+      <c r="D14" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="176" t="s">
+      <c r="C15" s="178"/>
+      <c r="D15" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="176" t="str">
+      <c r="C16" s="178"/>
+      <c r="D16" s="180" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="175" t="s">
+      <c r="C17" s="178"/>
+      <c r="D17" s="184" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="187">
+      <c r="C18" s="178"/>
+      <c r="D18" s="179">
         <v>45432</v>
       </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -23630,16 +23662,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -27460,31 +27492,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>A.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>0.41784558348237155</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -27553,45 +27600,79 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -27602,31 +27683,25 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -27649,11 +27724,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -27739,12 +27814,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -27752,12 +27827,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -27765,12 +27840,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="186"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -27778,12 +27853,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="186"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -27791,12 +27866,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -27844,117 +27919,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="176" t="str">
+      <c r="C13" s="178"/>
+      <c r="D13" s="180" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="176" t="str">
+      <c r="C14" s="178"/>
+      <c r="D14" s="180" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="176" t="str">
+      <c r="C15" s="178"/>
+      <c r="D15" s="180" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="176" t="str">
+      <c r="C16" s="178"/>
+      <c r="D16" s="180" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="176" t="str">
+      <c r="C17" s="178"/>
+      <c r="D17" s="180" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="187">
+      <c r="C18" s="178"/>
+      <c r="D18" s="179">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -28142,16 +28217,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -31945,31 +32020,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>B.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>0.29121988203380123</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -32038,45 +32128,80 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -32090,28 +32215,21 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -32134,11 +32252,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -32224,12 +32342,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -32237,12 +32355,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -32250,12 +32368,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="186"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -32263,12 +32381,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="186"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -32276,12 +32394,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -32329,117 +32447,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="176" t="str">
+      <c r="C13" s="178"/>
+      <c r="D13" s="180" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="176" t="str">
+      <c r="C14" s="178"/>
+      <c r="D14" s="180" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="176" t="str">
+      <c r="C15" s="178"/>
+      <c r="D15" s="180" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="176" t="str">
+      <c r="C16" s="178"/>
+      <c r="D16" s="180" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="176" t="str">
+      <c r="C17" s="178"/>
+      <c r="D17" s="180" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="187">
+      <c r="C18" s="178"/>
+      <c r="D18" s="179">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -32627,16 +32745,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -36430,31 +36548,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>C.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>0.37048459303411457</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -36523,45 +36656,80 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -36575,28 +36743,21 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -36619,11 +36780,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -36709,12 +36870,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -36722,12 +36883,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -36735,12 +36896,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="186"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -36748,12 +36909,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="186"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -36761,12 +36922,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -36814,117 +36975,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="176" t="str">
+      <c r="C13" s="178"/>
+      <c r="D13" s="180" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="176" t="str">
+      <c r="C14" s="178"/>
+      <c r="D14" s="180" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="176" t="str">
+      <c r="C15" s="178"/>
+      <c r="D15" s="180" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="176" t="str">
+      <c r="C16" s="178"/>
+      <c r="D16" s="180" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="176" t="str">
+      <c r="C17" s="178"/>
+      <c r="D17" s="180" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="187">
+      <c r="C18" s="178"/>
+      <c r="D18" s="179">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -37112,16 +37273,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -40915,31 +41076,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>D.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>0.34418835879034637</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -41008,45 +41184,80 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -41060,28 +41271,21 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -41105,9 +41309,9 @@
   </sheetPr>
   <dimension ref="A1:AM1048558"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27:O136"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="26" topLeftCell="A1193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -58867,12 +59071,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59129,17 +59332,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59164,18 +59377,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>